--- a/Final-Project-Plan.xlsx
+++ b/Final-Project-Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Documents/hue-learning/CICD-pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanson/Downloads/Udacity_prj2/Udacity_Devops_Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93951058-3FD4-5B4A-8A1F-16F147D94420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BF63D-1876-5E4D-A229-D03899A33966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1420" windowWidth="26120" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Year Plan" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Week</t>
   </si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>To do</t>
+  </si>
+  <si>
+    <t>31/09/2022</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -725,8 +731,8 @@
       <c r="C2" s="16">
         <v>44805</v>
       </c>
-      <c r="D2" s="16">
-        <v>44651</v>
+      <c r="D2" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>25</v>
@@ -805,7 +811,7 @@
         <v>44926</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -28621,8 +28627,8 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28914,7 +28920,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
